--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="12495"/>
+    <workbookView windowWidth="19665" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -103,19 +103,19 @@
     <t>87chjY045IWbBFtnt0+c8t</t>
   </si>
   <si>
-    <t>确定要花费星星x，来购买农场币x吗？</t>
-  </si>
-  <si>
-    <t>Are you sure you want to spend x stars to buy x farm coins?</t>
+    <t>确定要花费星星{0}，来购买农场币{1}吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to spend {0} stars to buy {1} farm coins?</t>
   </si>
   <si>
     <t>944AcGN0hNaKYlY0FlgMhb</t>
   </si>
   <si>
-    <t>确定要花费农场币x，来购买金币x吗？</t>
-  </si>
-  <si>
-    <t>Are you sure you want to spend x farm coins to buy x gold coins?</t>
+    <t>确定要花费农场币{0}，来购买金币{1}吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to spend {0} farm coins to buy {1} gold coins?</t>
   </si>
   <si>
     <t>25HjoD39ZJHJIQ9UhOZgzD</t>
@@ -1056,19 +1056,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1090,11 +1083,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,20 +1152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1160,9 +1160,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1173,9 +1189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,7 +1213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,29 +1221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,13 +1236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,6 +1254,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1279,19 +1284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,19 +1308,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,97 +1398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,8 +1433,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,21 +1519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1499,220 +1527,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2100,8 +2093,8 @@
   <sheetPr/>
   <dimension ref="A1:D16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2219,7 +2212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="9" s="2" customFormat="1" ht="57" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2233,7 +2226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="40" customHeight="1" spans="1:4">
+    <row r="10" s="2" customFormat="1" ht="56" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="11910"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,7 @@
     <t>清蒸胡萝卜</t>
   </si>
   <si>
-    <t>清蒸胡萝卜: Steamed Carrots</t>
+    <t>Steamed Carrots</t>
   </si>
   <si>
     <t>3H8nB1xQ5dK7jW0tL9yZ2s</t>
@@ -895,7 +895,7 @@
     <t>番茄炒蛋</t>
   </si>
   <si>
-    <t>番茄炒蛋: Tomato and Egg Stir-Fry</t>
+    <t>Tomato and Egg Stir-Fry</t>
   </si>
   <si>
     <t>5gZ8Q2tS1pL4yR6mF0cJ3H</t>
@@ -904,7 +904,7 @@
     <t>胡萝卜土豆泥</t>
   </si>
   <si>
-    <t>胡萝卜土豆泥: Carrot and Potato Mash</t>
+    <t>Carrot and Potato Mash</t>
   </si>
   <si>
     <t>1F9hC6tK8nB2rY0mP5jQ4W</t>
@@ -913,7 +913,7 @@
     <t>蔬菜披萨</t>
   </si>
   <si>
-    <t>蔬菜披萨: Vegetable Pizza</t>
+    <t>Vegetable Pizza</t>
   </si>
   <si>
     <t>xJ2pK7D0mG1yL4hY9cT6bR</t>
@@ -931,7 +931,7 @@
     <t>烤猪肋排</t>
   </si>
   <si>
-    <t>烤猪肋排: Grilled Pork Ribs</t>
+    <t>Grilled Pork Ribs</t>
   </si>
   <si>
     <t>K4nH7yD0gC1bT9xM2pF6R8</t>
@@ -940,7 +940,7 @@
     <t>双肉火锅</t>
   </si>
   <si>
-    <t>双肉火锅: Double Meat Hotpot</t>
+    <t>Double Meat Hotpot</t>
   </si>
   <si>
     <t>7R6jX1gK3cP8dH2wF5mY0B</t>
@@ -976,7 +976,7 @@
     <t>草莓奶昔</t>
   </si>
   <si>
-    <t>草莓奶昔: Strawberry Milkshake</t>
+    <t>Strawberry Milkshake</t>
   </si>
   <si>
     <t>zK9hC3bY8mR0dP6tF5wJ2Q</t>
@@ -985,7 +985,7 @@
     <t>草莓果酱</t>
   </si>
   <si>
-    <t>草莓果酱: Strawberry Jam</t>
+    <t>Strawberry Jam</t>
   </si>
   <si>
     <t>1Y4gD7nH2jM5tL9kW0xF3B</t>
@@ -1056,10 +1056,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1090,6 +1090,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1097,16 +1143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,37 +1166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,15 +1175,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1197,23 +1197,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,7 +1221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,13 +1236,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,31 +1272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,37 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,13 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,25 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,7 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,58 +1433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,9 +1471,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,10 +1533,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,137 +1545,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,6 +1701,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2093,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A1:D16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3381,7 +3384,7 @@
       <c r="B92" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="10" t="s">
         <v>287</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3392,10 +3395,10 @@
       <c r="A93" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="10" t="s">
         <v>290</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -3406,10 +3409,10 @@
       <c r="A94" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -3420,10 +3423,10 @@
       <c r="A95" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="10" t="s">
         <v>296</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -3434,10 +3437,10 @@
       <c r="A96" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="10" t="s">
         <v>299</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -3448,10 +3451,10 @@
       <c r="A97" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="10" t="s">
         <v>302</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -3462,10 +3465,10 @@
       <c r="A98" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="10" t="s">
         <v>305</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -3476,10 +3479,10 @@
       <c r="A99" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="10" t="s">
         <v>308</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -3490,10 +3493,10 @@
       <c r="A100" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="10" t="s">
         <v>311</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -3504,10 +3507,10 @@
       <c r="A101" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -3518,10 +3521,10 @@
       <c r="A102" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="10" t="s">
         <v>317</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -3532,10 +3535,10 @@
       <c r="A103" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="10" t="s">
         <v>320</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -3546,10 +3549,10 @@
       <c r="A104" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="10" t="s">
         <v>323</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -3560,10 +3563,10 @@
       <c r="A105" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="10" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -3574,10 +3577,10 @@
       <c r="A106" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="10" t="s">
         <v>329</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -3588,10 +3591,10 @@
       <c r="A107" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="10" t="s">
         <v>332</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -3602,10 +3605,10 @@
       <c r="A108" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="10" t="s">
         <v>335</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -3616,10 +3619,10 @@
       <c r="A109" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="10" t="s">
         <v>338</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -3630,10 +3633,10 @@
       <c r="A110" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -3644,10 +3647,10 @@
       <c r="A111" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="10" t="s">
         <v>344</v>
       </c>
       <c r="D111" s="3" t="s">

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="13890" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
     <t>小麦粉</t>
   </si>
   <si>
-    <t>Wheat Flour</t>
+    <t>Wheatmeal</t>
   </si>
   <si>
     <t>1W2nX5pF3qD8gH0kM4jR9C</t>
@@ -895,7 +895,7 @@
     <t>番茄炒蛋</t>
   </si>
   <si>
-    <t>Tomato and Egg Stir-Fry</t>
+    <t>Tomato Egg</t>
   </si>
   <si>
     <t>5gZ8Q2tS1pL4yR6mF0cJ3H</t>
@@ -904,7 +904,7 @@
     <t>胡萝卜土豆泥</t>
   </si>
   <si>
-    <t>Carrot and Potato Mash</t>
+    <t>Carrot Mash</t>
   </si>
   <si>
     <t>1F9hC6tK8nB2rY0mP5jQ4W</t>
@@ -931,7 +931,7 @@
     <t>烤猪肋排</t>
   </si>
   <si>
-    <t>Grilled Pork Ribs</t>
+    <t>Grilled Rib</t>
   </si>
   <si>
     <t>K4nH7yD0gC1bT9xM2pF6R8</t>
@@ -940,7 +940,7 @@
     <t>双肉火锅</t>
   </si>
   <si>
-    <t>Double Meat Hotpot</t>
+    <t>Meat Hotpot</t>
   </si>
   <si>
     <t>7R6jX1gK3cP8dH2wF5mY0B</t>
@@ -976,7 +976,7 @@
     <t>草莓奶昔</t>
   </si>
   <si>
-    <t>Strawberry Milkshake</t>
+    <t>Strawberry Shake</t>
   </si>
   <si>
     <t>zK9hC3bY8mR0dP6tF5wJ2Q</t>
@@ -1056,9 +1056,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1084,23 +1084,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,9 +1092,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1128,21 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1151,31 +1120,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1197,8 +1150,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,21 +1222,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,37 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,19 +1290,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,43 +1356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,19 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,6 +1427,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1454,17 +1493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,15 +1509,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,40 +1527,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,137 +1545,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,9 +1701,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2096,14 +2093,15 @@
   <sheetPr/>
   <dimension ref="A1:D16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3384,7 +3382,7 @@
       <c r="B92" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3395,10 +3393,10 @@
       <c r="A93" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="5" t="s">
         <v>290</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -3409,10 +3407,10 @@
       <c r="A94" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -3423,10 +3421,10 @@
       <c r="A95" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="5" t="s">
         <v>296</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -3437,10 +3435,10 @@
       <c r="A96" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="5" t="s">
         <v>299</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -3451,10 +3449,10 @@
       <c r="A97" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="5" t="s">
         <v>302</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -3465,10 +3463,10 @@
       <c r="A98" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="5" t="s">
         <v>305</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -3479,10 +3477,10 @@
       <c r="A99" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="5" t="s">
         <v>308</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -3493,10 +3491,10 @@
       <c r="A100" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -3507,10 +3505,10 @@
       <c r="A101" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="5" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -3521,10 +3519,10 @@
       <c r="A102" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="5" t="s">
         <v>317</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -3535,10 +3533,10 @@
       <c r="A103" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="5" t="s">
         <v>320</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -3549,10 +3547,10 @@
       <c r="A104" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="5" t="s">
         <v>323</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -3563,10 +3561,10 @@
       <c r="A105" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="5" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -3577,10 +3575,10 @@
       <c r="A106" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="5" t="s">
         <v>329</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -3591,10 +3589,10 @@
       <c r="A107" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -3605,10 +3603,10 @@
       <c r="A108" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="5" t="s">
         <v>335</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -3619,10 +3617,10 @@
       <c r="A109" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="5" t="s">
         <v>338</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -3633,10 +3631,10 @@
       <c r="A110" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="5" t="s">
         <v>341</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -3647,10 +3645,10 @@
       <c r="A111" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="5" t="s">
         <v>344</v>
       </c>
       <c r="D111" s="3" t="s">

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13890" windowHeight="13350"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
     <t>草莓奶昔</t>
   </si>
   <si>
-    <t>Strawberry Shake</t>
+    <t>Straw Shake</t>
   </si>
   <si>
     <t>zK9hC3bY8mR0dP6tF5wJ2Q</t>
@@ -1012,7 +1012,7 @@
     <t>鸭蛋</t>
   </si>
   <si>
-    <t>Duck Egg</t>
+    <t>DuckEgg</t>
   </si>
   <si>
     <t>3J2gY7pK1dH6wT0bR5nF4C</t>
@@ -1056,10 +1056,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1090,60 +1090,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,8 +1112,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,9 +1137,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1197,23 +1198,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,6 +1214,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,13 +1236,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,19 +1290,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,31 +1362,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,91 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,74 +1430,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,16 +1464,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,16 +1545,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1563,115 +1563,115 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2093,8 +2093,8 @@
   <sheetPr/>
   <dimension ref="A1:D16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="370">
   <si>
     <t>key</t>
   </si>
@@ -311,6 +311,81 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>5X2H45860K4ZR9D8B1A7Q2C</t>
+  </si>
+  <si>
+    <t>购买了{0}</t>
+  </si>
+  <si>
+    <t>Purchased {0}</t>
+  </si>
+  <si>
+    <t>信息反馈</t>
+  </si>
+  <si>
+    <t>1J4L31980G6PZ2F5C0R8T4M</t>
+  </si>
+  <si>
+    <t>出售了{0}</t>
+  </si>
+  <si>
+    <t>Sold {0}</t>
+  </si>
+  <si>
+    <t>3T6M74521V3QW8K9J2B5Y0D</t>
+  </si>
+  <si>
+    <t>获得{0}金币</t>
+  </si>
+  <si>
+    <t>Gained {0} gold coins</t>
+  </si>
+  <si>
+    <t>8G5N67240P1KQ3X6C9R4B2H</t>
+  </si>
+  <si>
+    <t>获得{0}经验</t>
+  </si>
+  <si>
+    <t>Gained {0} experience</t>
+  </si>
+  <si>
+    <t>KQ3X6C9R4B2H8G5N67240P1</t>
+  </si>
+  <si>
+    <t>获得{0}农场币</t>
+  </si>
+  <si>
+    <t>Gained {0} farm currency</t>
+  </si>
+  <si>
+    <t>7F9B22490T5LJ1H3K8W6P5R</t>
+  </si>
+  <si>
+    <t>建造了{0}</t>
+  </si>
+  <si>
+    <t>Built a {0}</t>
+  </si>
+  <si>
+    <t>2E3A58670H4QN9C1R7K8L5D</t>
+  </si>
+  <si>
+    <t>金币不够</t>
+  </si>
+  <si>
+    <t>Not enough gold coins</t>
+  </si>
+  <si>
+    <t>6U1K90328P7ZQ5A4B9T1R6F</t>
+  </si>
+  <si>
+    <t>农场币不够</t>
+  </si>
+  <si>
+    <t>Not enough farm coins</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -1056,10 +1131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1083,6 +1158,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1090,8 +1205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,15 +1235,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1135,37 +1256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1174,38 +1264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,10 +1279,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1236,19 +1311,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,13 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,31 +1365,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,97 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,6 +1435,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1427,26 +1502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1460,6 +1515,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1506,24 +1585,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,10 +1608,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,137 +1620,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,6 +1767,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2091,17 +2169,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16384"/>
+  <dimension ref="A1:D16392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2525,10 +2603,10 @@
       <c r="A31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2536,13 +2614,13 @@
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2553,10 +2631,10 @@
       <c r="A33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2567,10 +2645,10 @@
       <c r="A34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2581,10 +2659,10 @@
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2595,10 +2673,10 @@
       <c r="A36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2609,56 +2687,56 @@
       <c r="A37" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2672,997 +2750,1101 @@
         <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="C47" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="C48" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="C49" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="C50" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="C51" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="C52" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A57" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="10" t="s">
         <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A58" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="7" t="s">
         <v>196</v>
       </c>
+      <c r="B62" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A63" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="B63" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="C63" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="7" t="s">
         <v>202</v>
       </c>
+      <c r="B64" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="C64" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="B65" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="B66" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="B67" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A68" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="B68" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="B69" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="7" t="s">
         <v>220</v>
       </c>
+      <c r="B70" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="C70" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B71" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="B71" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="C71" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A72" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" s="7" t="s">
         <v>226</v>
       </c>
+      <c r="B72" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A73" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B73" s="7" t="s">
         <v>229</v>
       </c>
+      <c r="B73" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="B74" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="B75" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="7" t="s">
         <v>238</v>
       </c>
+      <c r="B76" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A77" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
+      <c r="B77" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="C77" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A78" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="B78" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="C78" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A79" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
+      <c r="B79" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="C79" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="B80" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="C80" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A81" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="7" t="s">
         <v>253</v>
       </c>
+      <c r="B81" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="C81" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" s="7" t="s">
         <v>256</v>
       </c>
+      <c r="B82" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="C82" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B83" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="B83" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="C83" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A84" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B84" s="7" t="s">
         <v>262</v>
       </c>
+      <c r="B84" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="C84" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B85" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="B85" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="C85" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="B86" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="C86" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="B87" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="C87" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" s="7" t="s">
         <v>274</v>
       </c>
+      <c r="B88" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="C88" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A89" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B89" s="7" t="s">
         <v>277</v>
       </c>
+      <c r="B89" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="C89" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A90" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B90" s="7" t="s">
         <v>280</v>
       </c>
+      <c r="B90" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="C90" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="7" t="s">
         <v>283</v>
       </c>
+      <c r="B91" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="C91" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A92" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="B92" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="C92" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="93" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A93" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" s="10" t="s">
         <v>289</v>
       </c>
+      <c r="B93" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="C93" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>167</v>
+        <v>291</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="94" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A94" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B94" s="10" t="s">
         <v>292</v>
       </c>
+      <c r="B94" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="C94" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>167</v>
+        <v>294</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="95" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="95" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A95" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" s="10" t="s">
         <v>295</v>
       </c>
+      <c r="B95" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="C95" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>167</v>
+        <v>297</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="96" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="96" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A96" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="10" t="s">
         <v>298</v>
       </c>
+      <c r="B96" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="C96" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>167</v>
+        <v>300</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="97" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="97" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A97" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="B97" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="C97" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>167</v>
+        <v>303</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="98" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="98" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A98" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B98" s="10" t="s">
         <v>304</v>
       </c>
+      <c r="B98" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="C98" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>167</v>
+        <v>306</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="99" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="99" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A99" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B99" s="10" t="s">
         <v>307</v>
       </c>
+      <c r="B99" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="C99" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>167</v>
+        <v>309</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="100" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="100" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="10" t="s">
         <v>310</v>
       </c>
+      <c r="B100" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="C100" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>167</v>
+        <v>312</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B101" s="10" t="s">
         <v>313</v>
       </c>
+      <c r="B101" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="C101" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B102" s="10" t="s">
         <v>316</v>
       </c>
+      <c r="B102" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="C102" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A103" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="10" t="s">
         <v>319</v>
       </c>
+      <c r="B103" s="11" t="s">
+        <v>320</v>
+      </c>
       <c r="C103" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A104" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" s="10" t="s">
         <v>322</v>
       </c>
+      <c r="B104" s="11" t="s">
+        <v>323</v>
+      </c>
       <c r="C104" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A105" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B105" s="10" t="s">
         <v>325</v>
       </c>
+      <c r="B105" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="C105" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B106" s="10" t="s">
         <v>328</v>
       </c>
+      <c r="B106" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="C106" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A108" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B108" s="10" t="s">
         <v>334</v>
       </c>
+      <c r="B108" s="11" t="s">
+        <v>335</v>
+      </c>
       <c r="C108" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A109" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B109" s="10" t="s">
         <v>337</v>
       </c>
+      <c r="B109" s="11" t="s">
+        <v>338</v>
+      </c>
       <c r="C109" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" s="10" t="s">
         <v>340</v>
       </c>
+      <c r="B110" s="11" t="s">
+        <v>341</v>
+      </c>
       <c r="C110" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B111" s="10" t="s">
         <v>343</v>
       </c>
+      <c r="B111" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="C111" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
+    <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="120" s="1" customFormat="1"/>
     <row r="121" s="1" customFormat="1"/>
     <row r="122" s="1" customFormat="1"/>
@@ -19928,6 +20110,14 @@
     <row r="16382" s="1" customFormat="1"/>
     <row r="16383" s="1" customFormat="1"/>
     <row r="16384" s="1" customFormat="1"/>
+    <row r="16385" s="1" customFormat="1"/>
+    <row r="16386" s="1" customFormat="1"/>
+    <row r="16387" s="1" customFormat="1"/>
+    <row r="16388" s="1" customFormat="1"/>
+    <row r="16389" s="1" customFormat="1"/>
+    <row r="16390" s="1" customFormat="1"/>
+    <row r="16391" s="1" customFormat="1"/>
+    <row r="16392" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="14070" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="373">
   <si>
     <t>key</t>
   </si>
@@ -316,10 +316,10 @@
     <t>5X2H45860K4ZR9D8B1A7Q2C</t>
   </si>
   <si>
-    <t>购买了{0}</t>
-  </si>
-  <si>
-    <t>Purchased {0}</t>
+    <t>购买了{0}，花费了{1}金币。</t>
+  </si>
+  <si>
+    <t>Purchased {0} for {1} gold coins.</t>
   </si>
   <si>
     <t>信息反馈</t>
@@ -328,10 +328,19 @@
     <t>1J4L31980G6PZ2F5C0R8T4M</t>
   </si>
   <si>
-    <t>出售了{0}</t>
-  </si>
-  <si>
-    <t>Sold {0}</t>
+    <t>出售了{0}，获得了{1}金币。</t>
+  </si>
+  <si>
+    <t>Sold {0} for {1} gold coins.</t>
+  </si>
+  <si>
+    <t>G6PZ2F5C0R8T4M1J4L31980</t>
+  </si>
+  <si>
+    <t>购买了{0}，花费了{1}农场币。</t>
+  </si>
+  <si>
+    <t>Purchased {0} for {1} farm coins.</t>
   </si>
   <si>
     <t>3T6M74521V3QW8K9J2B5Y0D</t>
@@ -1131,9 +1140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1158,9 +1167,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,40 +1206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,15 +1221,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,17 +1249,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1278,17 +1289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,6 +1303,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1311,13 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,13 +1338,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,73 +1386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,13 +1446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,31 +1476,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,84 +1511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1602,16 +1533,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1620,19 +1629,19 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,112 +1650,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2169,17 +2178,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16392"/>
+  <dimension ref="A1:D16393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2628,7 +2637,7 @@
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2715,70 +2724,70 @@
       <c r="A39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2792,35 +2801,35 @@
         <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2834,7 +2843,7 @@
         <v>152</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2848,7 +2857,7 @@
         <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2862,7 +2871,7 @@
         <v>158</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2876,7 +2885,7 @@
         <v>161</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2890,7 +2899,7 @@
         <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2904,7 +2913,7 @@
         <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2918,7 +2927,7 @@
         <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2932,7 +2941,7 @@
         <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2946,7 +2955,7 @@
         <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2960,7 +2969,7 @@
         <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2974,7 +2983,7 @@
         <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2988,7 +2997,7 @@
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3002,35 +3011,35 @@
         <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3044,7 +3053,7 @@
         <v>198</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3058,7 +3067,7 @@
         <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3072,7 +3081,7 @@
         <v>204</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3086,7 +3095,7 @@
         <v>207</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3100,7 +3109,7 @@
         <v>210</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3114,7 +3123,7 @@
         <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3128,7 +3137,7 @@
         <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3142,7 +3151,7 @@
         <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3156,7 +3165,7 @@
         <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3170,7 +3179,7 @@
         <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3184,7 +3193,7 @@
         <v>228</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3198,7 +3207,7 @@
         <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3212,7 +3221,7 @@
         <v>234</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3226,7 +3235,7 @@
         <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3240,7 +3249,7 @@
         <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3254,7 +3263,7 @@
         <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3268,7 +3277,7 @@
         <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3282,7 +3291,7 @@
         <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3296,7 +3305,7 @@
         <v>252</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3310,7 +3319,7 @@
         <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3324,7 +3333,7 @@
         <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3338,7 +3347,7 @@
         <v>261</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3352,7 +3361,7 @@
         <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3366,7 +3375,7 @@
         <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3380,7 +3389,7 @@
         <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3394,7 +3403,7 @@
         <v>273</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3408,7 +3417,7 @@
         <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3422,7 +3431,7 @@
         <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3436,7 +3445,7 @@
         <v>282</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3450,7 +3459,7 @@
         <v>285</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3464,7 +3473,7 @@
         <v>288</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3478,7 +3487,7 @@
         <v>291</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3492,7 +3501,7 @@
         <v>294</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3506,7 +3515,7 @@
         <v>297</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3520,7 +3529,7 @@
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3534,7 +3543,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3548,7 +3557,7 @@
         <v>306</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3562,7 +3571,7 @@
         <v>309</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3576,21 +3585,21 @@
         <v>312</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="101" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="101" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>192</v>
+      <c r="D101" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3604,7 +3613,7 @@
         <v>318</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3618,7 +3627,7 @@
         <v>321</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3632,7 +3641,7 @@
         <v>324</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3646,7 +3655,7 @@
         <v>327</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3660,7 +3669,7 @@
         <v>330</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3674,7 +3683,7 @@
         <v>333</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3688,7 +3697,7 @@
         <v>336</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3702,7 +3711,7 @@
         <v>339</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3716,7 +3725,7 @@
         <v>342</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3730,7 +3739,7 @@
         <v>345</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3744,7 +3753,7 @@
         <v>348</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3758,7 +3767,7 @@
         <v>351</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3772,35 +3781,35 @@
         <v>354</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>357</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>360</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3814,7 +3823,7 @@
         <v>363</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3828,7 +3837,7 @@
         <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3842,10 +3851,23 @@
         <v>369</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1"/>
+    <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="121" s="1" customFormat="1"/>
     <row r="122" s="1" customFormat="1"/>
     <row r="123" s="1" customFormat="1"/>
@@ -20118,6 +20140,7 @@
     <row r="16390" s="1" customFormat="1"/>
     <row r="16391" s="1" customFormat="1"/>
     <row r="16392" s="1" customFormat="1"/>
+    <row r="16393" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="376">
   <si>
     <t>key</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>Not enough farm coins</t>
+  </si>
+  <si>
+    <t>ZQ5A4B9T1R6F6U1K90328P7</t>
+  </si>
+  <si>
+    <t>出售失败</t>
+  </si>
+  <si>
+    <t>Sale failed</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -1140,9 +1149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1167,8 +1176,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,23 +1186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,66 +1202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,10 +1231,85 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1320,7 +1329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,13 +1353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,25 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,25 +1437,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,37 +1497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,24 +1513,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1514,13 +1523,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,6 +1567,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,65 +1610,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,10 +1626,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1629,133 +1638,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2178,10 +2187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16393"/>
+  <dimension ref="A1:D16394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2738,70 +2747,70 @@
       <c r="A40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2815,35 +2824,35 @@
         <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2857,7 +2866,7 @@
         <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2871,7 +2880,7 @@
         <v>158</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2885,7 +2894,7 @@
         <v>161</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2899,7 +2908,7 @@
         <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2913,7 +2922,7 @@
         <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2927,7 +2936,7 @@
         <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2941,7 +2950,7 @@
         <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2955,7 +2964,7 @@
         <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2969,7 +2978,7 @@
         <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2983,7 +2992,7 @@
         <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2997,7 +3006,7 @@
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3011,7 +3020,7 @@
         <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3025,35 +3034,35 @@
         <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3067,7 +3076,7 @@
         <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3081,7 +3090,7 @@
         <v>204</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3095,7 +3104,7 @@
         <v>207</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3109,7 +3118,7 @@
         <v>210</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3123,7 +3132,7 @@
         <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3137,7 +3146,7 @@
         <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3151,7 +3160,7 @@
         <v>219</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3165,7 +3174,7 @@
         <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3179,7 +3188,7 @@
         <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3193,7 +3202,7 @@
         <v>228</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3207,7 +3216,7 @@
         <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3221,7 +3230,7 @@
         <v>234</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3235,7 +3244,7 @@
         <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3249,7 +3258,7 @@
         <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3263,7 +3272,7 @@
         <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3277,7 +3286,7 @@
         <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3291,7 +3300,7 @@
         <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3305,7 +3314,7 @@
         <v>252</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3319,7 +3328,7 @@
         <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3333,7 +3342,7 @@
         <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3347,7 +3356,7 @@
         <v>261</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3361,7 +3370,7 @@
         <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3375,7 +3384,7 @@
         <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3389,7 +3398,7 @@
         <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3403,7 +3412,7 @@
         <v>273</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3417,7 +3426,7 @@
         <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3431,7 +3440,7 @@
         <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3445,7 +3454,7 @@
         <v>282</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3459,7 +3468,7 @@
         <v>285</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3473,7 +3482,7 @@
         <v>288</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3487,7 +3496,7 @@
         <v>291</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3501,7 +3510,7 @@
         <v>294</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3515,7 +3524,7 @@
         <v>297</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3529,7 +3538,7 @@
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3543,7 +3552,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3557,7 +3566,7 @@
         <v>306</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3571,7 +3580,7 @@
         <v>309</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3585,7 +3594,7 @@
         <v>312</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3599,21 +3608,21 @@
         <v>315</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="102" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>195</v>
+      <c r="D102" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3627,7 +3636,7 @@
         <v>321</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3641,7 +3650,7 @@
         <v>324</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3655,7 +3664,7 @@
         <v>327</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3669,7 +3678,7 @@
         <v>330</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3683,7 +3692,7 @@
         <v>333</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3697,7 +3706,7 @@
         <v>336</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3711,7 +3720,7 @@
         <v>339</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3725,7 +3734,7 @@
         <v>342</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3739,7 +3748,7 @@
         <v>345</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3753,7 +3762,7 @@
         <v>348</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3767,7 +3776,7 @@
         <v>351</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3781,7 +3790,7 @@
         <v>354</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3795,35 +3804,35 @@
         <v>357</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>360</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>363</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3837,7 +3846,7 @@
         <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3851,7 +3860,7 @@
         <v>369</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3865,10 +3874,23 @@
         <v>372</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1"/>
+    <row r="121" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A121" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="122" s="1" customFormat="1"/>
     <row r="123" s="1" customFormat="1"/>
     <row r="124" s="1" customFormat="1"/>
@@ -20141,6 +20163,7 @@
     <row r="16391" s="1" customFormat="1"/>
     <row r="16392" s="1" customFormat="1"/>
     <row r="16393" s="1" customFormat="1"/>
+    <row r="16394" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/en.xlsx
+++ b/Language/en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14070" windowHeight="12720"/>
+    <workbookView windowWidth="13635" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="400">
   <si>
     <t>key</t>
   </si>
@@ -316,10 +316,10 @@
     <t>5X2H45860K4ZR9D8B1A7Q2C</t>
   </si>
   <si>
-    <t>购买了{0}，花费了{1}金币。</t>
-  </si>
-  <si>
-    <t>Purchased {0} for {1} gold coins.</t>
+    <t>购买了{0}，花费了{1}金币</t>
+  </si>
+  <si>
+    <t>Purchased {0} for {1} gold coins</t>
   </si>
   <si>
     <t>信息反馈</t>
@@ -328,19 +328,19 @@
     <t>1J4L31980G6PZ2F5C0R8T4M</t>
   </si>
   <si>
-    <t>出售了{0}，获得了{1}金币。</t>
-  </si>
-  <si>
-    <t>Sold {0} for {1} gold coins.</t>
+    <t>出售了{0}，获得了{1}金币</t>
+  </si>
+  <si>
+    <t>Sold {0} for {1} gold coins</t>
   </si>
   <si>
     <t>G6PZ2F5C0R8T4M1J4L31980</t>
   </si>
   <si>
-    <t>购买了{0}，花费了{1}农场币。</t>
-  </si>
-  <si>
-    <t>Purchased {0} for {1} farm coins.</t>
+    <t>购买了{0}，花费了{1}农场币</t>
+  </si>
+  <si>
+    <t>Purchased {0} for {1} farm coins</t>
   </si>
   <si>
     <t>3T6M74521V3QW8K9J2B5Y0D</t>
@@ -397,6 +397,15 @@
     <t>Not enough farm coins</t>
   </si>
   <si>
+    <t>QW8R3D5T2Y7F6J9K41256P8</t>
+  </si>
+  <si>
+    <t>购买失败</t>
+  </si>
+  <si>
+    <t>Purchase failed</t>
+  </si>
+  <si>
     <t>ZQ5A4B9T1R6F6U1K90328P7</t>
   </si>
   <si>
@@ -404,6 +413,69 @@
   </si>
   <si>
     <t>Sale failed</t>
+  </si>
+  <si>
+    <t>A1B2C3D4E5F6G7H8I9J0K1L</t>
+  </si>
+  <si>
+    <t>操作失败，网络波动</t>
+  </si>
+  <si>
+    <t>Operation failed, network fluctuation</t>
+  </si>
+  <si>
+    <t>M4N5O6P7Q8R9S0T1U2V3W4X</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>Operation failed</t>
+  </si>
+  <si>
+    <t>Z9Y8X7W6V5U4T3S2R1Q0P9W</t>
+  </si>
+  <si>
+    <t>{0}的家</t>
+  </si>
+  <si>
+    <t>{0}'s home</t>
+  </si>
+  <si>
+    <t>H3J4K5L6M7N8O9P0Q1R2S3T</t>
+  </si>
+  <si>
+    <t>制作成功</t>
+  </si>
+  <si>
+    <t>Crafting successful</t>
+  </si>
+  <si>
+    <t>F7G8H9J0K1L2M3N4O5P6Q7R</t>
+  </si>
+  <si>
+    <t>获得了{0}</t>
+  </si>
+  <si>
+    <t>Obtained {0}</t>
+  </si>
+  <si>
+    <t>T2U3V4W5X6Y7Z8A9B0C1D2E</t>
+  </si>
+  <si>
+    <t>恭喜您，充值成功</t>
+  </si>
+  <si>
+    <t>Congratulations, recharge successful</t>
+  </si>
+  <si>
+    <t>P8Q9R1S2T3U4V5W6X7Y8Z0A</t>
+  </si>
+  <si>
+    <t>恭喜您，兑换成功</t>
+  </si>
+  <si>
+    <t>Congratulations, exchange successful</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -1149,10 +1221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1176,9 +1248,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,15 +1315,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,6 +1332,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1224,59 +1355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,9 +1368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,16 +1384,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,49 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,19 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,55 +1479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,13 +1503,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,6 +1561,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1520,6 +1592,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1538,6 +1619,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1549,48 +1639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,16 +1668,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1638,137 +1710,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1786,7 +1858,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2187,17 +2265,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16394"/>
+  <dimension ref="A1:D16402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2618,147 +2696,147 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2767,1138 +2845,1242 @@
       <c r="C41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>133</v>
+      <c r="D41" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>133</v>
+      <c r="D42" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>133</v>
+      <c r="D43" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>133</v>
+      <c r="D44" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>133</v>
+      <c r="D45" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>133</v>
+      <c r="D46" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>152</v>
+      <c r="D47" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>152</v>
+      <c r="D48" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="D49" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="D55" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A57" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="12" t="s">
         <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A58" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="12" t="s">
         <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="12" t="s">
         <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="12" t="s">
         <v>194</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="12" t="s">
         <v>197</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A63" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C64" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C66" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A67" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A69" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A70" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A71" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A72" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>228</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A73" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A74" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A76" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A77" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A78" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A79" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A80" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>252</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A81" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>255</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A83" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="10" t="s">
         <v>260</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>261</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A84" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="10" t="s">
         <v>263</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A85" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A86" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A87" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>275</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A89" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>281</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>282</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>285</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A92" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A93" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A94" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>294</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A95" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A96" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="10" t="s">
         <v>299</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A98" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>305</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>306</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>309</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A100" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="10" t="s">
         <v>314</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>315</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="10" t="s">
         <v>317</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>318</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="103" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A103" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>198</v>
+      <c r="D103" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="104" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>198</v>
+      <c r="D104" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="105" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A105" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>198</v>
+      <c r="D105" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="106" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>198</v>
+      <c r="D106" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="107" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>198</v>
+      <c r="D107" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="108" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A108" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>198</v>
+      <c r="D108" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="109" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A109" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>198</v>
+      <c r="D109" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="110" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A110" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>198</v>
+      <c r="D110" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A111" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="13" t="s">
         <v>344</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A112" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="13" t="s">
         <v>347</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="13" t="s">
         <v>350</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="13" t="s">
         <v>353</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>354</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="13" t="s">
         <v>356</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>357</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="13" t="s">
         <v>359</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>360</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="13" t="s">
         <v>362</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>363</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="13" t="s">
         <v>365</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="13" t="s">
         <v>368</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>369</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="13" t="s">
         <v>371</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>372</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A121" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="13" t="s">
         <v>374</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>375</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1"/>
-    <row r="123" s="1" customFormat="1"/>
-    <row r="124" s="1" customFormat="1"/>
-    <row r="125" s="1" customFormat="1"/>
-    <row r="126" s="1" customFormat="1"/>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
+    <row r="122" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A122" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A123" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="130" s="1" customFormat="1"/>
     <row r="131" s="1" customFormat="1"/>
     <row r="132" s="1" customFormat="1"/>
@@ -20164,6 +20346,14 @@
     <row r="16392" s="1" customFormat="1"/>
     <row r="16393" s="1" customFormat="1"/>
     <row r="16394" s="1" customFormat="1"/>
+    <row r="16395" s="1" customFormat="1"/>
+    <row r="16396" s="1" customFormat="1"/>
+    <row r="16397" s="1" customFormat="1"/>
+    <row r="16398" s="1" customFormat="1"/>
+    <row r="16399" s="1" customFormat="1"/>
+    <row r="16400" s="1" customFormat="1"/>
+    <row r="16401" s="1" customFormat="1"/>
+    <row r="16402" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
